--- a/grade_curricular.xlsx
+++ b/grade_curricular.xlsx
@@ -1,913 +1,1078 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESTUDOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steps\OneDrive\Documentos\MATERIAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499BC5ED-ED53-4862-BB54-2B5E396F522C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E762CAB-29DD-4A0F-B67A-58B64948A39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="6495" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="406">
-  <si>
-    <t>Período</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Nome da Disciplina</t>
-  </si>
-  <si>
-    <t>Créditos</t>
-  </si>
-  <si>
-    <t>Pré-requisitos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="405">
+  <si>
+    <t>GCC1910</t>
+  </si>
+  <si>
+    <t>PROGRAMAÇÃO DE JOGOS</t>
+  </si>
+  <si>
+    <t>GCC1311 PROGRAMAÇÃO ORIENTADA A OBJETOS</t>
+  </si>
+  <si>
+    <t>GCC1911</t>
+  </si>
+  <si>
+    <t>APLICAÇÕES PARA DISPOSITIVOS MÓVEIS</t>
+  </si>
+  <si>
+    <t>GEDA7201</t>
+  </si>
+  <si>
+    <t>EXPRESSÃO ORAL E ESCRITA</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>GEDA7101</t>
+  </si>
+  <si>
+    <t>ECONOMIA</t>
+  </si>
+  <si>
+    <t>GCC1912</t>
+  </si>
+  <si>
+    <t>GESTÃO DE TECNOLOGIA DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>GCC1913</t>
+  </si>
+  <si>
+    <t>INTELIGÊNCIA DE NEGÓCIOS</t>
+  </si>
+  <si>
+    <t>GCC1417 PROJETO DE BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>GADM7743</t>
+  </si>
+  <si>
+    <t>RESPONSABILIDADE SOCIAL</t>
+  </si>
+  <si>
+    <t>GADM7763</t>
+  </si>
+  <si>
+    <t>INSTITUIÇÕES DO DIREITO</t>
+  </si>
+  <si>
+    <t>GADM7741</t>
+  </si>
+  <si>
+    <t>GESTÃO ESTRATÉGICA</t>
+  </si>
+  <si>
+    <t>GADM7756</t>
+  </si>
+  <si>
+    <t>ECONOMIA BRASILEIRA</t>
+  </si>
+  <si>
+    <t>GADM7731</t>
+  </si>
+  <si>
+    <t>SIMULAÇÕES EMPRESARIAIS</t>
+  </si>
+  <si>
+    <t>GADM7708</t>
+  </si>
+  <si>
+    <t>MICROECONOMIA</t>
+  </si>
+  <si>
+    <t>GCC1914</t>
+  </si>
+  <si>
+    <t>TÓPICOS ESPECIAIS EM INTELIGÊNCIA COMPUTACIONAL</t>
+  </si>
+  <si>
+    <t>GCC1626 INTELIGÊNCIA COMPUTACIONAL</t>
+  </si>
+  <si>
+    <t>GCC1915</t>
+  </si>
+  <si>
+    <t>PROGRAMAÇÃO EM LÓGICA</t>
+  </si>
+  <si>
+    <t>GCC1916</t>
+  </si>
+  <si>
+    <t>SIMULAÇÕES COMPUTACIONAIS</t>
+  </si>
+  <si>
+    <t>GCC1207, GCC1627</t>
+  </si>
+  <si>
+    <t>GCC1917</t>
+  </si>
+  <si>
+    <t>TÓPICOS ESPECIAIS EM PROGRAMAÇÃO I</t>
+  </si>
+  <si>
+    <t>GCC1918</t>
+  </si>
+  <si>
+    <t>TÓPICOS ESPECIAIS EM PROGRAMAÇÃO II</t>
+  </si>
+  <si>
+    <t>GCC1919</t>
+  </si>
+  <si>
+    <t>TÓPICOS ESPECIAIS EM PROGRAMAÇÃO III</t>
+  </si>
+  <si>
+    <t>GCC1415 PROGRAMAÇÃO DE SOFTWARE PARA WEB</t>
+  </si>
+  <si>
+    <t>GCC1920</t>
+  </si>
+  <si>
+    <t>TÓPICOS ESPECIAIS EM PROGRAMAÇÃO IV</t>
+  </si>
+  <si>
+    <t>GADM7761</t>
+  </si>
+  <si>
+    <t>INOVAÇÕES TECNOLÓGICAS</t>
+  </si>
+  <si>
+    <t>GCC1921</t>
+  </si>
+  <si>
+    <t>APLICAÇÕES NA INTERNET PARA TV DIGITAL INTERATIVA</t>
+  </si>
+  <si>
+    <t>GADM7765</t>
+  </si>
+  <si>
+    <t>PRÁTICAS EM RESPONSABILIDADE SOCIOAMBIENTAL</t>
+  </si>
+  <si>
+    <t>GCC1924</t>
+  </si>
+  <si>
+    <t>LIBRAS – LÍNGUA BRASILEIRA DE SINAIS</t>
+  </si>
+  <si>
+    <t>GCC1923</t>
+  </si>
+  <si>
+    <t>MINERAÇÃO DE DADOS</t>
+  </si>
+  <si>
+    <t>GCC1925</t>
+  </si>
+  <si>
+    <t>PROGRAMAÇÃO DE CLIENTES WEB</t>
+  </si>
+  <si>
+    <t>GCC1926</t>
+  </si>
+  <si>
+    <t>GERÊNCIA DE DADOS SEMIESTRUTURADOS</t>
+  </si>
+  <si>
+    <t>GEXT7304</t>
+  </si>
+  <si>
+    <t>EQUAÇÕES DIFERENCIAIS PARCIAIS E SÉRIES (EDPS)</t>
+  </si>
+  <si>
+    <t>GEXT7303 EQUAÇÕES DIFERENCIAIS ORDINÁRIAS (EDO)</t>
+  </si>
+  <si>
+    <t>GEXT7306</t>
+  </si>
+  <si>
+    <t>VARIÁVEIS COMPLEXAS</t>
+  </si>
+  <si>
+    <t>GEXT7302 CÁLCULO A VÁRIAS VARIÁVEIS</t>
+  </si>
+  <si>
+    <t>GEXT7503</t>
+  </si>
+  <si>
+    <t>CÁLCULO VETORIAL</t>
+  </si>
+  <si>
+    <t>GCC1922</t>
+  </si>
+  <si>
+    <t>SEGURANÇA DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>GCC1310, GCC1415</t>
+  </si>
+  <si>
+    <t>GCC1927</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO DE APLICAÇÕES RICAS PARA INTERNET</t>
+  </si>
+  <si>
+    <t>GCC1928</t>
+  </si>
+  <si>
+    <t>PROGRAMAÇÃO DE SERVIDORES WEB</t>
+  </si>
+  <si>
+    <t>GLEA1079</t>
+  </si>
+  <si>
+    <t>DIREITO EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>GLEA1081</t>
+  </si>
+  <si>
+    <t>INGLÊS BÁSICO I</t>
+  </si>
+  <si>
+    <t>GCC1929</t>
+  </si>
+  <si>
+    <t>TESTE DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>GCC1930</t>
+  </si>
+  <si>
+    <t>FUNDAMENTOS BÁSICOS DE SISTEMAS MULTIMÍDIA PARA WEB</t>
+  </si>
+  <si>
+    <t>GCC1931</t>
+  </si>
+  <si>
+    <t>APLICAÇÕES À ROBÓTICA</t>
+  </si>
+  <si>
+    <t>GCC1932</t>
+  </si>
+  <si>
+    <t>APRENDIZADO DE MÁQUINA</t>
+  </si>
+  <si>
+    <t>GCC1207, GCC1518</t>
+  </si>
+  <si>
+    <t>GCC1933</t>
+  </si>
+  <si>
+    <t>MINERAÇÃO DE TEXTO</t>
+  </si>
+  <si>
+    <t>GCC1934</t>
+  </si>
+  <si>
+    <t>PROGRAMAÇÃO LINEAR</t>
+  </si>
+  <si>
+    <t>GEXT7302, GEXT7502</t>
+  </si>
+  <si>
+    <t>GCC1935</t>
+  </si>
+  <si>
+    <t>TÓPICOS AVANÇADOS EM SISTEMAS MULTIMÍDIA</t>
+  </si>
+  <si>
+    <t>GCC1936</t>
+  </si>
+  <si>
+    <t>OTIMIZAÇÃO POR METAHEURÍSTICAS</t>
+  </si>
+  <si>
+    <t>GCC1207 ESTRUTURA DE DADOS</t>
+  </si>
+  <si>
+    <t>GCC1937</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO E EVOLUÇÃO DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>GCC1311, GCC1521</t>
+  </si>
+  <si>
+    <t>GCC1938</t>
+  </si>
+  <si>
+    <t>MINERAÇÃO DE PROCESSOS</t>
+  </si>
+  <si>
+    <t>GCC1207, GCC1417</t>
+  </si>
+  <si>
+    <t>GCC1939</t>
+  </si>
+  <si>
+    <t>PROCESSAMENTO DE IMAGENS</t>
+  </si>
+  <si>
+    <t>GCC1103, GEXT7502</t>
   </si>
   <si>
     <t>GEXT7501</t>
   </si>
   <si>
+    <t>ÁLGEBRA LINEAR I</t>
+  </si>
+  <si>
     <t>GEXT7301</t>
   </si>
   <si>
+    <t>CÁLCULO A UMA VARIÁVEL</t>
+  </si>
+  <si>
     <t>GCC1101</t>
   </si>
   <si>
+    <t>INTRODUÇÃO À ADMINISTRAÇÃO</t>
+  </si>
+  <si>
     <t>GCC1102</t>
   </si>
   <si>
+    <t>ARQUITETURA DE COMPUTADORES</t>
+  </si>
+  <si>
     <t>GCC1103</t>
   </si>
   <si>
+    <t>PROJETO DE ALGORITMOS COMPUTACIONAIS</t>
+  </si>
+  <si>
     <t>GCC1104</t>
   </si>
   <si>
+    <t>LÓGICA MATEMÁTICA</t>
+  </si>
+  <si>
+    <t>GDES7001</t>
+  </si>
+  <si>
+    <t>DESENHO</t>
+  </si>
+  <si>
+    <t>GEXT7702</t>
+  </si>
+  <si>
+    <t>QUÍMICA</t>
+  </si>
+  <si>
+    <t>GEDA7800</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO À ENGENHARIA</t>
+  </si>
+  <si>
+    <t>GFIS8101</t>
+  </si>
+  <si>
+    <t>FÍSICA BÁSICA I</t>
+  </si>
+  <si>
+    <t>GFIS8102</t>
+  </si>
+  <si>
+    <t>PRÁTICAS DE FÍSICA I</t>
+  </si>
+  <si>
     <t>GEXT7502</t>
   </si>
   <si>
+    <t>ÁLGEBRA LINEAR II</t>
+  </si>
+  <si>
     <t>GEXT7302</t>
   </si>
   <si>
+    <t>CÁLCULO A VÁRIAS VARIÁVEIS</t>
+  </si>
+  <si>
+    <t>GEXT7301, GEXT7501</t>
+  </si>
+  <si>
     <t>GCC1205</t>
   </si>
   <si>
+    <t>SISTEMAS OPERACIONAIS</t>
+  </si>
+  <si>
     <t>GCC1206</t>
   </si>
   <si>
+    <t>ARQUITETURAS AVANÇADAS DE COMPUTADORES</t>
+  </si>
+  <si>
     <t>GCC1207</t>
   </si>
   <si>
+    <t>ESTRUTURAS DE DADOS</t>
+  </si>
+  <si>
     <t>GCC1208</t>
   </si>
   <si>
+    <t>MATEMÁTICA DISCRETA</t>
+  </si>
+  <si>
     <t>GCC1209</t>
   </si>
   <si>
+    <t>CIÊNCIAS AMBIENTAIS</t>
+  </si>
+  <si>
+    <t>GEXT7401</t>
+  </si>
+  <si>
+    <t>COMPUTAÇÃO</t>
+  </si>
+  <si>
+    <t>GEXT7001</t>
+  </si>
+  <si>
+    <t>MECÂNICA BÁSICA</t>
+  </si>
+  <si>
+    <t>GEDA7301</t>
+  </si>
+  <si>
+    <t>HUMANIDADES E CIÊNCIAS SOCIAIS</t>
+  </si>
+  <si>
+    <t>GEDA7401</t>
+  </si>
+  <si>
+    <t>METODOLOGIA CIENTÍFICA</t>
+  </si>
+  <si>
+    <t>GFIS8201</t>
+  </si>
+  <si>
+    <t>FÍSICA BÁSICA II</t>
+  </si>
+  <si>
+    <t>GFIS8101, GEXT7301</t>
+  </si>
+  <si>
+    <t>GFIS8202</t>
+  </si>
+  <si>
+    <t>PRÁTICAS DE FÍSICA II</t>
+  </si>
+  <si>
+    <t>GFIS8101, GFIS8102</t>
+  </si>
+  <si>
     <t>GEXT7303</t>
   </si>
   <si>
+    <t>EQUAÇÕES DIFERENCIAIS ORDINÁRIAS</t>
+  </si>
+  <si>
     <t>GCC1309</t>
   </si>
   <si>
+    <t>SISTEMAS DIGITAIS</t>
+  </si>
+  <si>
     <t>GCC1310</t>
   </si>
   <si>
+    <t>FUNDAMENTOS DE REDES DE COMPUTADORES</t>
+  </si>
+  <si>
     <t>GCC1311</t>
   </si>
   <si>
+    <t>PROGRAMAÇÃO ORIENTADA A OBJETOS</t>
+  </si>
+  <si>
     <t>GCC1312</t>
   </si>
   <si>
+    <t>ENGENHARIA DE REQUISITOS</t>
+  </si>
+  <si>
     <t>GCC1313</t>
   </si>
   <si>
+    <t>EMPREENDEDORISMO</t>
+  </si>
+  <si>
+    <t>GMEC7003</t>
+  </si>
+  <si>
+    <t>MECÂNICA GERAL</t>
+  </si>
+  <si>
+    <t>GEXT7001, GEXT7502</t>
+  </si>
+  <si>
+    <t>GEXT7003</t>
+  </si>
+  <si>
+    <t>ELETRICIDADE BÁSICA</t>
+  </si>
+  <si>
+    <t>GEXT7302, GEXT7001</t>
+  </si>
+  <si>
+    <t>GEXT7601</t>
+  </si>
+  <si>
+    <t>ESTATÍSTICA</t>
+  </si>
+  <si>
+    <t>GEDA7004</t>
+  </si>
+  <si>
+    <t>FUNDAMENTOS DE ENGENHARIA DE SEGURANÇA</t>
+  </si>
+  <si>
+    <t>GFIS8301</t>
+  </si>
+  <si>
+    <t>FÍSICA MATEMÁTICA I</t>
+  </si>
+  <si>
+    <t>GFIS8302</t>
+  </si>
+  <si>
+    <t>FÍSICA BÁSICA III</t>
+  </si>
+  <si>
+    <t>GFIS8101, GEXT7302</t>
+  </si>
+  <si>
+    <t>GFIS8303</t>
+  </si>
+  <si>
+    <t>PRÁTICAS DE FÍSICA III</t>
+  </si>
+  <si>
     <t>GCC1314</t>
   </si>
   <si>
     <t>GEXT7402</t>
   </si>
   <si>
+    <t>CÁLCULO NUMÉRICO</t>
+  </si>
+  <si>
+    <t>GEXT7301, GCC1103</t>
+  </si>
+  <si>
     <t>GCC1414</t>
   </si>
   <si>
+    <t>GERÊNCIA DE PROJETOS DE TECNOLOGIA DA INFORMAÇÃO</t>
+  </si>
+  <si>
     <t>GCC1415</t>
   </si>
   <si>
+    <t>PROGRAMAÇÃO DE SOFTWARE PARA WEB</t>
+  </si>
+  <si>
     <t>GCC1416</t>
   </si>
   <si>
+    <t>ANÁLISE E PROJETO DE SISTEMAS</t>
+  </si>
+  <si>
     <t>GCC1417</t>
   </si>
   <si>
+    <t>PROJETO DE BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>GEXT7002</t>
+  </si>
+  <si>
+    <t>FÍSICA TÉRMICA</t>
+  </si>
+  <si>
+    <t>GMEC7006</t>
+  </si>
+  <si>
+    <t>RESISTÊNCIA DE MATERIAIS III</t>
+  </si>
+  <si>
+    <t>GELE7051</t>
+  </si>
+  <si>
+    <t>CIRCUITOS ELÉTRICOS I</t>
+  </si>
+  <si>
+    <t>GELE7042</t>
+  </si>
+  <si>
+    <t>MATERIAIS ELÉTRICOS</t>
+  </si>
+  <si>
+    <t>GEXT7702, GEXT7003</t>
+  </si>
+  <si>
+    <t>GELE7163</t>
+  </si>
+  <si>
+    <t>ELETRÔNICA DIGITAL</t>
+  </si>
+  <si>
+    <t>GFIS8401</t>
+  </si>
+  <si>
+    <t>FÍSICA MATEMÁTICA II</t>
+  </si>
+  <si>
+    <t>GFIS8301, GEXT7601</t>
+  </si>
+  <si>
+    <t>GFIS8402</t>
+  </si>
+  <si>
+    <t>FÍSICA BÁSICA IV</t>
+  </si>
+  <si>
+    <t>GFIS8403</t>
+  </si>
+  <si>
+    <t>PRÁTICAS DE FÍSICA IV</t>
+  </si>
+  <si>
+    <t>GFIS8302, GFIS8303</t>
+  </si>
+  <si>
+    <t>GFIS8405</t>
+  </si>
+  <si>
+    <t>MECÂNICA CLÁSSICA</t>
+  </si>
+  <si>
+    <t>GFIS8301, GFIS8201</t>
+  </si>
+  <si>
+    <t>GFIS8406</t>
+  </si>
+  <si>
+    <t>FÍSICA COMPUTACIONAL I</t>
+  </si>
+  <si>
+    <t>GEXT7401, GFIS8301</t>
+  </si>
+  <si>
     <t>GCC1418</t>
   </si>
   <si>
+    <t>ORGANIZAÇÃO DE ESTRUTURAS DE ARQUIVOS</t>
+  </si>
+  <si>
     <t>GCC1518</t>
   </si>
   <si>
+    <t>ESTATÍSTICA E PROBABILIDADE</t>
+  </si>
+  <si>
     <t>GCC1519</t>
   </si>
   <si>
+    <t>ARQUITETURA DE LINGUAGENS DE PROGRAMAÇÃO</t>
+  </si>
+  <si>
     <t>GCC1520</t>
   </si>
   <si>
+    <t>ARQUITETURA E PADRÕES DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>GCC1415, GCC1416</t>
+  </si>
+  <si>
     <t>GCC1521</t>
   </si>
   <si>
+    <t>ENGENHARIA DE SOFTWARE</t>
+  </si>
+  <si>
     <t>GCC1522</t>
   </si>
   <si>
+    <t>ADMINISTRAÇÃO DE BANCO DE DADOS</t>
+  </si>
+  <si>
     <t>GCC1523</t>
   </si>
   <si>
+    <t>GEXT7201</t>
+  </si>
+  <si>
+    <t>CIÊNCIAS DO AMBIENTE</t>
+  </si>
+  <si>
+    <t>GEXT7004</t>
+  </si>
+  <si>
+    <t>ONDAS</t>
+  </si>
+  <si>
+    <t>GEXT7003, GEXT7002</t>
+  </si>
+  <si>
+    <t>GMEC7007</t>
+  </si>
+  <si>
+    <t>FENÔMENOS DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>GELE7061</t>
+  </si>
+  <si>
+    <t>CIRCUITOS ELÉTRICOS II</t>
+  </si>
+  <si>
+    <t>GELE7151</t>
+  </si>
+  <si>
+    <t>ELETRÔNICA I</t>
+  </si>
+  <si>
+    <t>GELE7052</t>
+  </si>
+  <si>
+    <t>ELETROMAGNETISMO I</t>
+  </si>
+  <si>
+    <t>GFIS8501</t>
+  </si>
+  <si>
+    <t>FÍSICA MATEMÁTICA III</t>
+  </si>
+  <si>
+    <t>GFIS8502</t>
+  </si>
+  <si>
+    <t>FÍSICA MODERNA</t>
+  </si>
+  <si>
+    <t>GFIS8503</t>
+  </si>
+  <si>
+    <t>PRÁTICAS DE FÍSICA MODERNA</t>
+  </si>
+  <si>
+    <t>GFIS8504</t>
+  </si>
+  <si>
+    <t>GFIS8401, GFIS8302</t>
+  </si>
+  <si>
+    <t>GFIS8505</t>
+  </si>
+  <si>
+    <t>MECÂNICA ANALÍTICA I</t>
+  </si>
+  <si>
+    <t>GFIS8405, GFIS8401</t>
+  </si>
+  <si>
     <t>GCC1624</t>
   </si>
   <si>
+    <t>TEORIA DA COMPUTAÇÃO</t>
+  </si>
+  <si>
     <t>GCC1625</t>
   </si>
   <si>
+    <t>INFERÊNCIA ESTATÍSTICA</t>
+  </si>
+  <si>
     <t>GCC1626</t>
   </si>
   <si>
+    <t>INTELIGÊNCIA COMPUTACIONAL</t>
+  </si>
+  <si>
+    <t>GCC1518, GCC1104</t>
+  </si>
+  <si>
     <t>GCC1627</t>
   </si>
   <si>
+    <t>ALGORITMOS EM GRAFOS</t>
+  </si>
+  <si>
     <t>GCC1628</t>
   </si>
   <si>
+    <t>INTERAÇÃO HUMANO-COMPUTADOR</t>
+  </si>
+  <si>
+    <t>GCC1311, GCC1312</t>
+  </si>
+  <si>
     <t>GCC1629</t>
   </si>
   <si>
+    <t>PRÁTICA EM PESQUISA APLICADA</t>
+  </si>
+  <si>
     <t>GCC1730</t>
   </si>
   <si>
+    <t>COMPILADORES</t>
+  </si>
+  <si>
+    <t>GELE7303</t>
+  </si>
+  <si>
+    <t>SINAIS E SISTEMAS</t>
+  </si>
+  <si>
+    <t>GEXT7303, GEXT7306</t>
+  </si>
+  <si>
+    <t>GELE7171</t>
+  </si>
+  <si>
+    <t>CONTROLES E SERVOMECANISMOS I</t>
+  </si>
+  <si>
+    <t>GEDA7002</t>
+  </si>
+  <si>
+    <t>PLANEJAMENTO DA PRODUÇÃO</t>
+  </si>
+  <si>
+    <t>MÍNIMO DE 60 CRÉDITOS</t>
+  </si>
+  <si>
+    <t>GELE7164</t>
+  </si>
+  <si>
+    <t>ELETRÔNICA II</t>
+  </si>
+  <si>
+    <t>GELE7061, GELE7151</t>
+  </si>
+  <si>
+    <t>GELE7063</t>
+  </si>
+  <si>
+    <t>CORRENTE ALTERNADA I</t>
+  </si>
+  <si>
+    <t>GELE7064</t>
+  </si>
+  <si>
+    <t>CONVERSÃO DE ENERGIA I</t>
+  </si>
+  <si>
+    <t>GELE7062</t>
+  </si>
+  <si>
+    <t>ELETROMAGNETISMO II</t>
+  </si>
+  <si>
+    <t>GFIS8601</t>
+  </si>
+  <si>
+    <t>GFIS8602</t>
+  </si>
+  <si>
+    <t>MECÂNICA QUÂNTICA I</t>
+  </si>
+  <si>
+    <t>GFIS8603</t>
+  </si>
+  <si>
+    <t>MECÂNICA ANALÍTICA II</t>
+  </si>
+  <si>
+    <t>GFIS8604</t>
+  </si>
+  <si>
+    <t>TERMODINÂMICA</t>
+  </si>
+  <si>
+    <t>GFIS8501, GFIS8201</t>
+  </si>
+  <si>
     <t>GCC1731</t>
   </si>
   <si>
+    <t>COMPUTAÇÃO GRÁFICA</t>
+  </si>
+  <si>
     <t>GCC1732</t>
   </si>
   <si>
+    <t>SISTEMAS CONCORRENTES E DISTRIBUÍDOS</t>
+  </si>
+  <si>
+    <t>GCC1205, GCC1312</t>
+  </si>
+  <si>
     <t>GCC1733</t>
   </si>
   <si>
+    <t>PROJETO E CONSTRUÇÃO DE SISTEMAS</t>
+  </si>
+  <si>
     <t>GCC1734</t>
   </si>
   <si>
+    <t>INTELIGÊNCIA ARTIFICIAL</t>
+  </si>
+  <si>
+    <t>GCC1104, GCC1207</t>
+  </si>
+  <si>
     <t>GCC1735</t>
   </si>
   <si>
+    <t>CONCEPÇÃO E ELABORAÇÃO DE PROJETO FINAL</t>
+  </si>
+  <si>
+    <t>GCC1629, GCC1416</t>
+  </si>
+  <si>
     <t>GCC1836</t>
   </si>
   <si>
+    <t>LEGISLAÇÃO DE INFORMÁTICA</t>
+  </si>
+  <si>
+    <t>GELE7075</t>
+  </si>
+  <si>
+    <t>CORRENTE ALTERNADA II</t>
+  </si>
+  <si>
+    <t>GELE7071</t>
+  </si>
+  <si>
+    <t>INSTALAÇÕES ELÉTRICAS</t>
+  </si>
+  <si>
+    <t>GELE7175</t>
+  </si>
+  <si>
+    <t>ELETRÔNICA APLICADA</t>
+  </si>
+  <si>
+    <t>GELE7162</t>
+  </si>
+  <si>
+    <t>MEDIDAS ELÉTRICAS E MAGNÉTICAS</t>
+  </si>
+  <si>
+    <t>GELE7181</t>
+  </si>
+  <si>
+    <t>CONTROLES E SERVOMECANISMO II</t>
+  </si>
+  <si>
+    <t>GELE7304</t>
+  </si>
+  <si>
+    <t>CÁLCULO ELÉTRICO DE LINHAS DE TRANSMISSÃO</t>
+  </si>
+  <si>
+    <t>GELE7074</t>
+  </si>
+  <si>
+    <t>CONVERSÃO DE ENERGIA II</t>
+  </si>
+  <si>
+    <t>GELE7305</t>
+  </si>
+  <si>
+    <t>CÁLCULO MECÂNICO DE LINHAS DE TRANSMISSÃO</t>
+  </si>
+  <si>
+    <t>GFIS8701</t>
+  </si>
+  <si>
+    <t>MECÂNICA ESTATÍSTICA</t>
+  </si>
+  <si>
+    <t>GFIS8602, GFIS8604</t>
+  </si>
+  <si>
+    <t>GFIS8702</t>
+  </si>
+  <si>
+    <t>MECÂNICA QUÂNTICA II</t>
+  </si>
+  <si>
+    <t>GFIS8703</t>
+  </si>
+  <si>
+    <t>FÍSICA ATÔMICA E MOLECULAR</t>
+  </si>
+  <si>
+    <t>GFIS8704</t>
+  </si>
+  <si>
+    <t>FÍSICA NUCLEAR E PARTÍCULAS ELEMENTARES</t>
+  </si>
+  <si>
+    <t>GFIS8705</t>
+  </si>
+  <si>
+    <t>MONOGRAFIA I</t>
+  </si>
+  <si>
     <t>GCC1837</t>
   </si>
   <si>
+    <t>INFORMÁTICA E SOCIEDADE</t>
+  </si>
+  <si>
     <t>GCC1839</t>
   </si>
   <si>
-    <t>Álgebra Linear I</t>
-  </si>
-  <si>
-    <t>Cálculo a uma Variável</t>
-  </si>
-  <si>
-    <t>Introdução à Administração</t>
-  </si>
-  <si>
-    <t>Arquitetura de Computadores</t>
-  </si>
-  <si>
-    <t>Projeto de Algoritmos Computacionais</t>
-  </si>
-  <si>
-    <t>Lógica Matemática</t>
-  </si>
-  <si>
-    <t>Álgebra Linear II</t>
-  </si>
-  <si>
-    <t>Cálculo a Várias Variáveis</t>
-  </si>
-  <si>
-    <t>Sistemas Operacionais</t>
-  </si>
-  <si>
-    <t>Arquiteturas Avançadas de Computadores</t>
-  </si>
-  <si>
-    <t>Estruturas de Dados</t>
-  </si>
-  <si>
-    <t>Matemática Discreta</t>
-  </si>
-  <si>
-    <t>Ciências Ambientais</t>
-  </si>
-  <si>
-    <t>Equações Diferenciais Ordinárias</t>
-  </si>
-  <si>
-    <t>Sistemas Digitais</t>
-  </si>
-  <si>
-    <t>Fundamentos de Redes de Computadores</t>
-  </si>
-  <si>
-    <t>Programação Orientada a Objetos</t>
-  </si>
-  <si>
-    <t>Engenharia de Requisitos</t>
-  </si>
-  <si>
-    <t>Empreendedorismo</t>
-  </si>
-  <si>
-    <t>Humanidades e Ciências Sociais</t>
-  </si>
-  <si>
-    <t>Cálculo Numérico</t>
-  </si>
-  <si>
-    <t>Gerência de Projetos de Tecnologia da Informação</t>
-  </si>
-  <si>
-    <t>Programação de Software para Web</t>
-  </si>
-  <si>
-    <t>Análise e Projeto de Sistemas</t>
-  </si>
-  <si>
-    <t>Projeto de Banco de Dados</t>
-  </si>
-  <si>
-    <t>Organização de Estruturas de Arquivos</t>
-  </si>
-  <si>
-    <t>Estatística e Probabilidade</t>
-  </si>
-  <si>
-    <t>Arquitetura de Linguagens de Programação</t>
-  </si>
-  <si>
-    <t>Arquitetura e Padrões de Software</t>
-  </si>
-  <si>
-    <t>Engenharia de Software</t>
-  </si>
-  <si>
-    <t>Administração de Banco de Dados</t>
-  </si>
-  <si>
-    <t>Metodologia Científica</t>
-  </si>
-  <si>
-    <t>Teoria da Computação</t>
-  </si>
-  <si>
-    <t>Inferência Estatística</t>
-  </si>
-  <si>
-    <t>Inteligência Computacional</t>
-  </si>
-  <si>
-    <t>Algoritmos em Grafos</t>
-  </si>
-  <si>
-    <t>Interação Humano-Computador</t>
-  </si>
-  <si>
-    <t>Prática em Pesquisa Aplicada</t>
-  </si>
-  <si>
-    <t>Compiladores</t>
-  </si>
-  <si>
-    <t>Computação Gráfica</t>
-  </si>
-  <si>
-    <t>Sistemas Concorrentes e Distribuídos</t>
-  </si>
-  <si>
-    <t>Projeto e Construção de Sistemas</t>
-  </si>
-  <si>
-    <t>Inteligência Artificial</t>
-  </si>
-  <si>
-    <t>Concepção e Elaboração de Projeto Final</t>
-  </si>
-  <si>
-    <t>Legislação de Informática</t>
-  </si>
-  <si>
-    <t>Informática e Sociedade</t>
-  </si>
-  <si>
-    <t>Elaboração e Construção de Projeto Final</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>GEXT7301, GEXT7501</t>
-  </si>
-  <si>
-    <t>GEXT7302, GEXT7502</t>
-  </si>
-  <si>
-    <t>GEXT7301, GCC1103</t>
-  </si>
-  <si>
-    <t>GCC1415, GCC1416</t>
-  </si>
-  <si>
-    <t>GCC1518, GCC1104</t>
-  </si>
-  <si>
-    <t>GCC1311, GCC1312</t>
-  </si>
-  <si>
-    <t>GCC1205, GCC1312</t>
-  </si>
-  <si>
-    <t>GCC1104, GCC1207</t>
-  </si>
-  <si>
-    <t>GCC1629, GCC1416</t>
-  </si>
-  <si>
-    <t>Carga Horária</t>
-  </si>
-  <si>
-    <t>GCC1910</t>
-  </si>
-  <si>
-    <t>Programação de Jogos</t>
-  </si>
-  <si>
-    <t>GCC1311 Programação Orientada a Objetos</t>
-  </si>
-  <si>
-    <t>GCC1911</t>
-  </si>
-  <si>
-    <t>Aplicações para Dispositivos Móveis</t>
-  </si>
-  <si>
-    <t>GEDA7201</t>
-  </si>
-  <si>
-    <t>Expressão Oral e Escrita</t>
-  </si>
-  <si>
-    <t>GEDA7101</t>
-  </si>
-  <si>
-    <t>Economia</t>
-  </si>
-  <si>
-    <t>GCC1912</t>
-  </si>
-  <si>
-    <t>Gestão de Tecnologia da Informação</t>
-  </si>
-  <si>
-    <t>GCC1913</t>
-  </si>
-  <si>
-    <t>Inteligência de Negócios</t>
-  </si>
-  <si>
-    <t>GCC1417 Projeto de Banco de Dados</t>
-  </si>
-  <si>
-    <t>GADM7743</t>
-  </si>
-  <si>
-    <t>Responsabilidade Social</t>
-  </si>
-  <si>
-    <t>GADM7763</t>
-  </si>
-  <si>
-    <t>Instituições do Direito</t>
-  </si>
-  <si>
-    <t>GADM7741</t>
-  </si>
-  <si>
-    <t>Gestão Estratégica</t>
-  </si>
-  <si>
-    <t>GADM7756</t>
-  </si>
-  <si>
-    <t>Economia Brasileira</t>
-  </si>
-  <si>
-    <t>GADM7731</t>
-  </si>
-  <si>
-    <t>Simulações Empresariais</t>
-  </si>
-  <si>
-    <t>GADM7708</t>
-  </si>
-  <si>
-    <t>Microeconomia</t>
-  </si>
-  <si>
-    <t>GCC1914</t>
-  </si>
-  <si>
-    <t>Tópicos Especiais em Inteligência Computacional</t>
-  </si>
-  <si>
-    <t>GCC1626 Inteligência Computacional</t>
-  </si>
-  <si>
-    <t>GCC1915</t>
-  </si>
-  <si>
-    <t>Programação em Lógica</t>
-  </si>
-  <si>
-    <t>GCC1916</t>
-  </si>
-  <si>
-    <t>Simulações Computacionais</t>
-  </si>
-  <si>
-    <t>GCC1207, GCC1627</t>
-  </si>
-  <si>
-    <t>GCC1917</t>
-  </si>
-  <si>
-    <t>Tópicos Especiais em Programação I</t>
-  </si>
-  <si>
-    <t>GCC1918</t>
-  </si>
-  <si>
-    <t>Tópicos Especiais em Programação II</t>
-  </si>
-  <si>
-    <t>GCC1919</t>
-  </si>
-  <si>
-    <t>Tópicos Especiais em Programação III</t>
-  </si>
-  <si>
-    <t>GCC1415 Programação de Software para Web</t>
-  </si>
-  <si>
-    <t>GCC1920</t>
-  </si>
-  <si>
-    <t>Tópicos Especiais em Programação IV</t>
-  </si>
-  <si>
-    <t>GADM7761</t>
-  </si>
-  <si>
-    <t>Inovações Tecnológicas</t>
-  </si>
-  <si>
-    <t>GCC1921</t>
-  </si>
-  <si>
-    <t>Aplicações na Internet para TV Digital Interativa</t>
-  </si>
-  <si>
-    <t>GADM7765</t>
-  </si>
-  <si>
-    <t>Práticas em Responsabilidade Socioambiental</t>
-  </si>
-  <si>
-    <t>GCC1924</t>
-  </si>
-  <si>
-    <t>LIBRAS – Língua Brasileira de Sinais</t>
-  </si>
-  <si>
-    <t>GCC1923</t>
-  </si>
-  <si>
-    <t>Mineração de Dados</t>
-  </si>
-  <si>
-    <t>GCC1925</t>
-  </si>
-  <si>
-    <t>Programação de Clientes Web</t>
-  </si>
-  <si>
-    <t>GCC1926</t>
-  </si>
-  <si>
-    <t>Gerência de Dados Semiestruturados</t>
-  </si>
-  <si>
-    <t>GEXT7304</t>
-  </si>
-  <si>
-    <t>Equações Diferenciais Parciais e Séries (EDPS)</t>
-  </si>
-  <si>
-    <t>GEXT7303 Equações Diferenciais Ordinárias (EDO)</t>
-  </si>
-  <si>
-    <t>GEXT7306</t>
-  </si>
-  <si>
-    <t>Variáveis Complexas</t>
-  </si>
-  <si>
-    <t>GEXT7302 Cálculo a Várias Variáveis</t>
-  </si>
-  <si>
-    <t>GEXT7503</t>
-  </si>
-  <si>
-    <t>Cálculo Vetorial</t>
-  </si>
-  <si>
-    <t>GCC1922</t>
-  </si>
-  <si>
-    <t>Segurança da Informação</t>
-  </si>
-  <si>
-    <t>GCC1310, GCC1415</t>
-  </si>
-  <si>
-    <t>GCC1927</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de Aplicações Ricas para Internet</t>
-  </si>
-  <si>
-    <t>GCC1928</t>
-  </si>
-  <si>
-    <t>Programação de Servidores WEB</t>
-  </si>
-  <si>
-    <t>GLEA1079</t>
-  </si>
-  <si>
-    <t>Direito Empresarial</t>
-  </si>
-  <si>
-    <t>GLEA1081</t>
-  </si>
-  <si>
-    <t>Inglês Básico I</t>
-  </si>
-  <si>
-    <t>GCC1929</t>
-  </si>
-  <si>
-    <t>Teste de Software</t>
-  </si>
-  <si>
-    <t>GCC1930</t>
-  </si>
-  <si>
-    <t>Fundamentos Básicos de Sistemas Multimídia para WEB</t>
-  </si>
-  <si>
-    <t>GCC1931</t>
-  </si>
-  <si>
-    <t>Aplicações à Robótica</t>
-  </si>
-  <si>
-    <t>GCC1932</t>
-  </si>
-  <si>
-    <t>Aprendizado de Máquina</t>
-  </si>
-  <si>
-    <t>GCC1207, GCC1518</t>
-  </si>
-  <si>
-    <t>GCC1933</t>
-  </si>
-  <si>
-    <t>Mineração de Texto</t>
-  </si>
-  <si>
-    <t>GCC1934</t>
-  </si>
-  <si>
-    <t>Programação Linear</t>
-  </si>
-  <si>
-    <t>GCC1935</t>
-  </si>
-  <si>
-    <t>Tópicos avançados em Sistemas Multimídia</t>
-  </si>
-  <si>
-    <t>GCC1936</t>
-  </si>
-  <si>
-    <t>Otimização por Metaheurísticas</t>
-  </si>
-  <si>
-    <t>GCC1207 Estrutura de Dados</t>
-  </si>
-  <si>
-    <t>GCC1937</t>
-  </si>
-  <si>
-    <t>Manutenção e Evolução de Software</t>
-  </si>
-  <si>
-    <t>GCC1311, GCC1521</t>
-  </si>
-  <si>
-    <t>GCC1938</t>
-  </si>
-  <si>
-    <t>Mineração de Processos</t>
-  </si>
-  <si>
-    <t>GCC1207, GCC1417</t>
-  </si>
-  <si>
-    <t>GCC1939</t>
-  </si>
-  <si>
-    <t>Processamento de Imagens</t>
-  </si>
-  <si>
-    <t>GCC1103, GEXT7502</t>
-  </si>
-  <si>
-    <t>GDES7001</t>
-  </si>
-  <si>
-    <t>Desenho</t>
-  </si>
-  <si>
-    <t>GEXT7702</t>
-  </si>
-  <si>
-    <t>Química</t>
-  </si>
-  <si>
-    <t>GEDA7800</t>
-  </si>
-  <si>
-    <t>Introdução à Engenharia</t>
-  </si>
-  <si>
-    <t>GEXT7401</t>
-  </si>
-  <si>
-    <t>Computação</t>
-  </si>
-  <si>
-    <t>GEXT7001</t>
-  </si>
-  <si>
-    <t>Mecânica Básica</t>
-  </si>
-  <si>
-    <t>GEDA7301</t>
-  </si>
-  <si>
-    <t>GEDA7401</t>
-  </si>
-  <si>
-    <t>GMEC7003</t>
-  </si>
-  <si>
-    <t>Mecânica Geral</t>
-  </si>
-  <si>
-    <t>GEXT7001, GEXT7502</t>
-  </si>
-  <si>
-    <t>GEXT7003</t>
-  </si>
-  <si>
-    <t>Eletricidade Básica</t>
-  </si>
-  <si>
-    <t>GEXT7302, GEXT7001</t>
-  </si>
-  <si>
-    <t>GEXT7601</t>
-  </si>
-  <si>
-    <t>Estatística</t>
-  </si>
-  <si>
-    <t>GEDA7004</t>
-  </si>
-  <si>
-    <t>Fundamentos de Engenharia de Segurança</t>
-  </si>
-  <si>
-    <t>GEXT7002</t>
-  </si>
-  <si>
-    <t>Física Térmica</t>
-  </si>
-  <si>
-    <t>GMEC7006</t>
-  </si>
-  <si>
-    <t>Resistência de Materiais III</t>
-  </si>
-  <si>
-    <t>GELE7051</t>
-  </si>
-  <si>
-    <t>Circuitos Elétricos I</t>
-  </si>
-  <si>
-    <t>GELE7042</t>
-  </si>
-  <si>
-    <t>Materiais Elétricos</t>
-  </si>
-  <si>
-    <t>GEXT7702, GEXT7003</t>
-  </si>
-  <si>
-    <t>GELE7163</t>
-  </si>
-  <si>
-    <t>Eletrônica Digital</t>
-  </si>
-  <si>
-    <t>GEXT7201</t>
-  </si>
-  <si>
-    <t>Ciências do Ambiente</t>
-  </si>
-  <si>
-    <t>GEXT7004</t>
-  </si>
-  <si>
-    <t>Ondas</t>
-  </si>
-  <si>
-    <t>GEXT7003, GEXT7002</t>
-  </si>
-  <si>
-    <t>GMEC7007</t>
-  </si>
-  <si>
-    <t>Fenômenos de Transporte</t>
-  </si>
-  <si>
-    <t>GELE7061</t>
-  </si>
-  <si>
-    <t>Circuitos Elétricos II</t>
-  </si>
-  <si>
-    <t>GELE7151</t>
-  </si>
-  <si>
-    <t>Eletrônica I</t>
-  </si>
-  <si>
-    <t>GELE7052</t>
-  </si>
-  <si>
-    <t>Eletromagnetismo I</t>
-  </si>
-  <si>
-    <t>GELE7303</t>
-  </si>
-  <si>
-    <t>Sinais e Sistemas</t>
-  </si>
-  <si>
-    <t>GEXT7303, GEXT7306</t>
-  </si>
-  <si>
-    <t>GELE7171</t>
-  </si>
-  <si>
-    <t>Controles e Servomecanismos I</t>
-  </si>
-  <si>
-    <t>GEDA7002</t>
-  </si>
-  <si>
-    <t>Planejamento da Produção</t>
-  </si>
-  <si>
-    <t>Mínimo de 60 créditos</t>
-  </si>
-  <si>
-    <t>GELE7164</t>
-  </si>
-  <si>
-    <t>Eletrônica II</t>
-  </si>
-  <si>
-    <t>GELE7061, GELE7151</t>
-  </si>
-  <si>
-    <t>GELE7063</t>
-  </si>
-  <si>
-    <t>Corrente Alternada I</t>
-  </si>
-  <si>
-    <t>GELE7064</t>
-  </si>
-  <si>
-    <t>Conversão de Energia I</t>
-  </si>
-  <si>
-    <t>GELE7062</t>
-  </si>
-  <si>
-    <t>Eletromagnetismo II</t>
-  </si>
-  <si>
-    <t>GELE7075</t>
-  </si>
-  <si>
-    <t>Corrente Alternada II</t>
-  </si>
-  <si>
-    <t>GELE7071</t>
-  </si>
-  <si>
-    <t>Instalações Elétricas</t>
-  </si>
-  <si>
-    <t>GELE7175</t>
-  </si>
-  <si>
-    <t>Eletrônica Aplicada</t>
-  </si>
-  <si>
-    <t>GELE7162</t>
-  </si>
-  <si>
-    <t>Medidas Elétricas e Magnéticas</t>
-  </si>
-  <si>
-    <t>GELE7181</t>
-  </si>
-  <si>
-    <t>Controles e Servomecanismo II</t>
-  </si>
-  <si>
-    <t>GELE7304</t>
-  </si>
-  <si>
-    <t>Cálculo Elétrico de Linhas de Transmissão</t>
-  </si>
-  <si>
-    <t>GELE7074</t>
-  </si>
-  <si>
-    <t>Conversão de Energia II</t>
-  </si>
-  <si>
-    <t>GELE7305</t>
-  </si>
-  <si>
-    <t>Cálculo Mecânico de Linhas de Transmissão</t>
+    <t>ELABORAÇÃO E CONSTRUÇÃO DE PROJETO FINAL</t>
   </si>
   <si>
     <t>GEDA7001</t>
   </si>
   <si>
-    <t>Administração</t>
+    <t>ADMINISTRAÇÃO</t>
   </si>
   <si>
     <t>GELE7083</t>
   </si>
   <si>
-    <t>Acionamentos Elétricos</t>
+    <t>ACIONAMENTOS ELÉTRICOS</t>
   </si>
   <si>
     <t>GELE7071, GELE7074</t>
@@ -916,328 +1081,160 @@
     <t>GELE7081</t>
   </si>
   <si>
-    <t>Análise de Sistemas de Potencial I</t>
+    <t>ANÁLISE DE SISTEMAS DE POTENCIAL I</t>
   </si>
   <si>
     <t>GELE7082</t>
   </si>
   <si>
-    <t>Instalações Hidráulicas</t>
+    <t>INSTALAÇÕES HIDRÁULICAS</t>
   </si>
   <si>
     <t>GELE7084</t>
   </si>
   <si>
-    <t>Medidas em Sistemas de Energia</t>
+    <t>MEDIDAS EM SISTEMAS DE ENERGIA</t>
   </si>
   <si>
     <t>GELE7182</t>
   </si>
   <si>
-    <t>Eletrônica Industrial</t>
+    <t>ELETRÔNICA INDUSTRIAL</t>
   </si>
   <si>
     <t>GELE7306</t>
   </si>
   <si>
-    <t>Instalações Elétricas Industriais</t>
+    <t>INSTALAÇÕES ELÉTRICAS INDUSTRIAIS</t>
   </si>
   <si>
     <t>GELE7307</t>
   </si>
   <si>
-    <t>Subestações Industriais e Equipamentos</t>
+    <t>SUBESTAÇÕES INDUSTRIAIS E EQUIPAMENTOS</t>
+  </si>
+  <si>
+    <t>GFIS8801</t>
+  </si>
+  <si>
+    <t>FÍSICA DA MATÉRIA CONDENSADA</t>
+  </si>
+  <si>
+    <t>GFIS8701, GFIS8702</t>
+  </si>
+  <si>
+    <t>GFIS8802</t>
+  </si>
+  <si>
+    <t>MECÂNICA QUÂNTICA RELATIVÍSTICA</t>
   </si>
   <si>
     <t>GELE7308</t>
   </si>
   <si>
-    <t>Estruturação do Setor Elétrico</t>
+    <t>ESTRUTURAÇÃO DO SETOR ELÉTRICO</t>
   </si>
   <si>
     <t>GELE7095</t>
   </si>
   <si>
-    <t>Análise de Sistemas de Potência II</t>
+    <t>ANÁLISE DE SISTEMAS DE POTÊNCIA II</t>
   </si>
   <si>
     <t>GELE7309</t>
   </si>
   <si>
-    <t>Distribuição Projeto e Equipamentos</t>
+    <t>DISTRIBUIÇÃO PROJETO E EQUIPAMENTOS</t>
   </si>
   <si>
     <t>GELE7097</t>
   </si>
   <si>
-    <t>Subestações de Potência</t>
+    <t>SUBESTAÇÕES DE POTÊNCIA</t>
   </si>
   <si>
     <t>GELE7008</t>
   </si>
   <si>
-    <t>Proteção do Sistema Elétrico</t>
+    <t>PROTEÇÃO DO SISTEMA ELÉTRICO</t>
   </si>
   <si>
     <t>GELE7005</t>
   </si>
   <si>
-    <t>Projeto Final I</t>
-  </si>
-  <si>
-    <t>Mínimo de 130 créditos</t>
+    <t>PROJETO FINAL I</t>
+  </si>
+  <si>
+    <t>MÍNIMO DE 130 CRÉDITOS</t>
   </si>
   <si>
     <t>GELE7094</t>
   </si>
   <si>
-    <t>Estágio Supervisionado</t>
-  </si>
-  <si>
-    <t>Mínimo de 120 créditos</t>
+    <t>ESTÁGIO SUPERVISIONADO</t>
+  </si>
+  <si>
+    <t>MÍNIMO DE 120 CRÉDITOS</t>
   </si>
   <si>
     <t>GELE7296</t>
   </si>
   <si>
-    <t>Sistemas de Qualidade</t>
+    <t>SISTEMAS DE QUALIDADE</t>
   </si>
   <si>
     <t>GELE7310</t>
   </si>
   <si>
-    <t>Geração</t>
+    <t>GERAÇÃO</t>
   </si>
   <si>
     <t>GELE7302</t>
   </si>
   <si>
-    <t>Comercialização de Energia Elétrica</t>
+    <t>COMERCIALIZAÇÃO DE ENERGIA ELÉTRICA</t>
   </si>
   <si>
     <t>GELE7312</t>
   </si>
   <si>
-    <t>Distribuição e Planejamento</t>
+    <t>DISTRIBUIÇÃO E PLANEJAMENTO</t>
   </si>
   <si>
     <t>GELE7313</t>
   </si>
   <si>
-    <t>Transitórios Eletromagnéticos</t>
+    <t>TRANSITÓRIOS ELETROMAGNÉTICOS</t>
   </si>
   <si>
     <t>GELE7314</t>
   </si>
   <si>
-    <t>Estabilidade em Sistemas de Potência</t>
+    <t>ESTABILIDADE EM SISTEMAS DE POTÊNCIA</t>
   </si>
   <si>
     <t>GELE7315</t>
   </si>
   <si>
-    <t>Projeto Final II</t>
-  </si>
-  <si>
-    <t>Cálculo a Uma Variável</t>
-  </si>
-  <si>
-    <t>GFIS8101</t>
-  </si>
-  <si>
-    <t>Física Básica I</t>
-  </si>
-  <si>
-    <t>GFIS8102</t>
-  </si>
-  <si>
-    <t>Práticas de Física I</t>
-  </si>
-  <si>
-    <t>GFIS8201</t>
-  </si>
-  <si>
-    <t>Física Básica II</t>
-  </si>
-  <si>
-    <t>GFIS8101, GEXT7301</t>
-  </si>
-  <si>
-    <t>GFIS8202</t>
-  </si>
-  <si>
-    <t>Práticas de Física II</t>
-  </si>
-  <si>
-    <t>GFIS8101, GFIS8102</t>
-  </si>
-  <si>
-    <t>GFIS8301</t>
-  </si>
-  <si>
-    <t>Física Matemática I</t>
-  </si>
-  <si>
-    <t>GFIS8302</t>
-  </si>
-  <si>
-    <t>Física Básica III</t>
-  </si>
-  <si>
-    <t>GFIS8101, GEXT7302</t>
-  </si>
-  <si>
-    <t>GFIS8303</t>
-  </si>
-  <si>
-    <t>Práticas de Física III</t>
-  </si>
-  <si>
-    <t>GFIS8401</t>
-  </si>
-  <si>
-    <t>Física Matemática II</t>
-  </si>
-  <si>
-    <t>GFIS8301, GEXT7601</t>
-  </si>
-  <si>
-    <t>GFIS8402</t>
-  </si>
-  <si>
-    <t>Física Básica IV</t>
-  </si>
-  <si>
-    <t>GFIS8403</t>
-  </si>
-  <si>
-    <t>Práticas de Física IV</t>
-  </si>
-  <si>
-    <t>GFIS8302, GFIS8303</t>
-  </si>
-  <si>
-    <t>GFIS8405</t>
-  </si>
-  <si>
-    <t>Mecânica Clássica</t>
-  </si>
-  <si>
-    <t>GFIS8301, GFIS8201</t>
-  </si>
-  <si>
-    <t>GFIS8406</t>
-  </si>
-  <si>
-    <t>Física Computacional I</t>
-  </si>
-  <si>
-    <t>GEXT7401, GFIS8301</t>
-  </si>
-  <si>
-    <t>GFIS8501</t>
-  </si>
-  <si>
-    <t>Física Matemática III</t>
-  </si>
-  <si>
-    <t>GFIS8502</t>
-  </si>
-  <si>
-    <t>Física Moderna</t>
-  </si>
-  <si>
-    <t>GFIS8503</t>
-  </si>
-  <si>
-    <t>Práticas de Física Moderna</t>
-  </si>
-  <si>
-    <t>GFIS8504</t>
-  </si>
-  <si>
-    <t>GFIS8401, GFIS8302</t>
-  </si>
-  <si>
-    <t>GFIS8505</t>
-  </si>
-  <si>
-    <t>Mecânica Analítica I</t>
-  </si>
-  <si>
-    <t>GFIS8405, GFIS8401</t>
-  </si>
-  <si>
-    <t>GFIS8601</t>
-  </si>
-  <si>
-    <t>GFIS8602</t>
-  </si>
-  <si>
-    <t>Mecânica Quântica I</t>
-  </si>
-  <si>
-    <t>GFIS8603</t>
-  </si>
-  <si>
-    <t>Mecânica Analítica II</t>
-  </si>
-  <si>
-    <t>GFIS8604</t>
-  </si>
-  <si>
-    <t>Termodinâmica</t>
-  </si>
-  <si>
-    <t>GFIS8501, GFIS8201</t>
-  </si>
-  <si>
-    <t>GFIS8701</t>
-  </si>
-  <si>
-    <t>Mecânica Estatística</t>
-  </si>
-  <si>
-    <t>GFIS8602, GFIS8604</t>
-  </si>
-  <si>
-    <t>GFIS8702</t>
-  </si>
-  <si>
-    <t>Mecânica Quântica II</t>
-  </si>
-  <si>
-    <t>GFIS8703</t>
-  </si>
-  <si>
-    <t>Física Atômica e Molecular</t>
-  </si>
-  <si>
-    <t>GFIS8704</t>
-  </si>
-  <si>
-    <t>Física Nuclear e Partículas Elementares</t>
-  </si>
-  <si>
-    <t>GFIS8705</t>
-  </si>
-  <si>
-    <t>Monografia I</t>
-  </si>
-  <si>
-    <t>GFIS8801</t>
-  </si>
-  <si>
-    <t>Física da Matéria Condensada</t>
-  </si>
-  <si>
-    <t>GFIS8701, GFIS8702</t>
-  </si>
-  <si>
-    <t>GFIS8802</t>
-  </si>
-  <si>
-    <t>Mecânica Quântica Relativística</t>
+    <t>PROJETO FINAL II</t>
+  </si>
+  <si>
+    <t>COD_DISCIPLINA</t>
+  </si>
+  <si>
+    <t>NOME_DISCIPLINA</t>
+  </si>
+  <si>
+    <t>PERIODO_IDEAL</t>
+  </si>
+  <si>
+    <t>CREDITOS</t>
+  </si>
+  <si>
+    <t>PRE_REQUISITOS</t>
+  </si>
+  <si>
+    <t>CARGA_HORARIA</t>
   </si>
 </sst>
 </file>
@@ -1255,10 +1252,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1319,9 +1313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1359,7 +1353,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1393,7 +1387,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1428,10 +1421,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1607,81 +1599,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>402</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>404</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1690,58 +1682,58 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1750,78 +1742,78 @@
         <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1830,118 +1822,118 @@
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1950,18 +1942,18 @@
         <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1970,18 +1962,18 @@
         <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1990,38 +1982,38 @@
         <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2030,78 +2022,78 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -2110,18 +2102,18 @@
         <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -2130,18 +2122,18 @@
         <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -2150,78 +2142,78 @@
         <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -2230,18 +2222,18 @@
         <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -2250,58 +2242,58 @@
         <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2310,18 +2302,18 @@
         <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -2330,18 +2322,18 @@
         <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -2350,18 +2342,18 @@
         <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -2370,18 +2362,18 @@
         <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -2390,18 +2382,18 @@
         <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -2410,35 +2402,35 @@
         <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s">
         <v>90</v>
-      </c>
-      <c r="F41" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
         <v>92</v>
@@ -2450,18 +2442,18 @@
         <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -2470,18 +2462,18 @@
         <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -2490,18 +2482,18 @@
         <v>72</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -2510,38 +2502,38 @@
         <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2550,58 +2542,58 @@
         <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
         <v>110</v>
       </c>
-      <c r="C49" t="s">
-        <v>111</v>
-      </c>
       <c r="D49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -2610,98 +2602,98 @@
         <v>72</v>
       </c>
       <c r="F50" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>72</v>
       </c>
       <c r="F54" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -2710,98 +2702,98 @@
         <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F56" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -2810,18 +2802,18 @@
         <v>54</v>
       </c>
       <c r="F60" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -2830,58 +2822,58 @@
         <v>72</v>
       </c>
       <c r="F61" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D62">
         <v>4</v>
       </c>
       <c r="E62">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -2890,18 +2882,18 @@
         <v>72</v>
       </c>
       <c r="F64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -2910,98 +2902,98 @@
         <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67">
         <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3010,78 +3002,78 @@
         <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F71" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F72" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -3090,58 +3082,58 @@
         <v>72</v>
       </c>
       <c r="F74" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -3150,18 +3142,18 @@
         <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -3170,18 +3162,18 @@
         <v>72</v>
       </c>
       <c r="F78" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -3190,18 +3182,18 @@
         <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -3210,18 +3202,18 @@
         <v>72</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C81" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -3230,98 +3222,98 @@
         <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C82" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F82" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D83">
         <v>4</v>
       </c>
       <c r="E83">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F83" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C84" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C86" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -3330,38 +3322,38 @@
         <v>72</v>
       </c>
       <c r="F86" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F87" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -3370,78 +3362,78 @@
         <v>72</v>
       </c>
       <c r="F88" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C90" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <v>72</v>
       </c>
       <c r="F91" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -3450,18 +3442,18 @@
         <v>72</v>
       </c>
       <c r="F92" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -3470,18 +3462,18 @@
         <v>72</v>
       </c>
       <c r="F93" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -3490,58 +3482,58 @@
         <v>72</v>
       </c>
       <c r="F94" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E95">
         <v>72</v>
       </c>
       <c r="F95" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F96" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -3550,147 +3542,147 @@
         <v>72</v>
       </c>
       <c r="F97" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C98" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E98">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F98" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C99" t="s">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="F99" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F100" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C101" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F101" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C102" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E102">
         <v>90</v>
       </c>
       <c r="F102" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C103" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C104" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3698,19 +3690,19 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C105" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E105">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F105" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3718,13 +3710,13 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C106" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106">
         <v>72</v>
@@ -3735,82 +3727,82 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E107">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F107" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E108">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F108" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F109" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D110">
         <v>4</v>
       </c>
       <c r="E110">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F110" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3818,19 +3810,19 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C111" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E111">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F111" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3838,19 +3830,19 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C112" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E112">
         <v>72</v>
       </c>
       <c r="F112" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3858,19 +3850,19 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C113" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>235</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3878,19 +3870,19 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3898,10 +3890,10 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -3910,7 +3902,7 @@
         <v>72</v>
       </c>
       <c r="F115" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3918,50 +3910,50 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C116" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D116">
         <v>3</v>
       </c>
       <c r="E116">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C117" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F117" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C118" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -3970,18 +3962,18 @@
         <v>72</v>
       </c>
       <c r="F118" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C119" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -3990,358 +3982,358 @@
         <v>54</v>
       </c>
       <c r="F119" t="s">
-        <v>266</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C120" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E120">
         <v>72</v>
       </c>
       <c r="F120" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C121" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E121">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F121" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C122" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C123" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E123">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C124" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E124">
         <v>72</v>
       </c>
       <c r="F124" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C125" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E125">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F125" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C126" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C127" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E127">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F127" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C128" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E128">
         <v>72</v>
       </c>
       <c r="F128" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C129" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F129" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C130" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E130">
         <v>72</v>
       </c>
       <c r="F130" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C131" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E131">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F131" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C132" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F132" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C133" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F133" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C134" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E134">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F134" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C135" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D135">
         <v>3</v>
       </c>
       <c r="E135">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F135" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C136" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E136">
         <v>54</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C137" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -4350,18 +4342,18 @@
         <v>72</v>
       </c>
       <c r="F137" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C138" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D138">
         <v>3</v>
@@ -4370,198 +4362,198 @@
         <v>54</v>
       </c>
       <c r="F138" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C139" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E139">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C140" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E140">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F140" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C141" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E141">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F141" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C142" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E142">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C143" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E143">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F143" t="s">
-        <v>307</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C144" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E144">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F144" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C145" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E145">
         <v>72</v>
       </c>
       <c r="F145" t="s">
-        <v>321</v>
+        <v>228</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>117</v>
+        <v>308</v>
       </c>
       <c r="C146" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F146" t="s">
-        <v>99</v>
+        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C147" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D147">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E147">
-        <v>360</v>
+        <v>72</v>
       </c>
       <c r="F147" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C148" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -4570,78 +4562,78 @@
         <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>321</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C149" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D149">
         <v>3</v>
       </c>
       <c r="E149">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C150" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C151" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D151">
         <v>3</v>
       </c>
       <c r="E151">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F151" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C152" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D152">
         <v>3</v>
@@ -4650,78 +4642,78 @@
         <v>54</v>
       </c>
       <c r="F152" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C153" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D153">
         <v>3</v>
       </c>
       <c r="E153">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F153" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C154" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D154">
         <v>2</v>
       </c>
       <c r="E154">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>328</v>
       </c>
       <c r="C155" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E155">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F155" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="C156" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -4730,18 +4722,18 @@
         <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B157" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C157" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D157">
         <v>4</v>
@@ -4750,38 +4742,38 @@
         <v>72</v>
       </c>
       <c r="F157" t="s">
-        <v>99</v>
+        <v>334</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C158" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E158">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F158" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="C159" t="s">
-        <v>59</v>
+        <v>338</v>
       </c>
       <c r="D159">
         <v>4</v>
@@ -4790,132 +4782,132 @@
         <v>72</v>
       </c>
       <c r="F159" t="s">
-        <v>6</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="C160" t="s">
-        <v>58</v>
+        <v>340</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E160">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F160" t="s">
-        <v>5</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="C161" t="s">
-        <v>220</v>
+        <v>342</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E161">
         <v>72</v>
       </c>
       <c r="F161" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
+        <v>343</v>
+      </c>
+      <c r="C162" t="s">
         <v>344</v>
       </c>
-      <c r="C162" t="s">
-        <v>345</v>
-      </c>
       <c r="D162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F162" t="s">
-        <v>346</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C163" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E163">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F163" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C164" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>231</v>
+        <v>349</v>
       </c>
       <c r="C165" t="s">
-        <v>232</v>
+        <v>350</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E165">
         <v>54</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>351</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B166" t="s">
         <v>352</v>
@@ -4924,144 +4916,144 @@
         <v>353</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F166" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B167" t="s">
+        <v>354</v>
+      </c>
+      <c r="C167" t="s">
         <v>355</v>
       </c>
-      <c r="C167" t="s">
-        <v>356</v>
-      </c>
       <c r="D167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E167">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F167" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B168" t="s">
+        <v>356</v>
+      </c>
+      <c r="C168" t="s">
         <v>357</v>
       </c>
-      <c r="C168" t="s">
-        <v>358</v>
-      </c>
       <c r="D168">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F168" t="s">
-        <v>359</v>
+        <v>287</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C169" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E169">
         <v>72</v>
       </c>
       <c r="F169" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C170" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F170" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C171" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F171" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C172" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E172">
         <v>72</v>
       </c>
       <c r="F172" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C173" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D173">
         <v>4</v>
@@ -5070,310 +5062,310 @@
         <v>72</v>
       </c>
       <c r="F173" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C174" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E174">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F174" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C175" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F175" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C176" t="s">
-        <v>258</v>
+        <v>374</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F176" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C177" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E177">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F177" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C178" t="s">
-        <v>275</v>
+        <v>378</v>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F178" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C179" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E179">
         <v>72</v>
       </c>
       <c r="F179" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>385</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>386</v>
+        <v>9</v>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>379</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C181" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E181">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="F181" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C182" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E182">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C183" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E183">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F183" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C184" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D184">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E184">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F184" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C185" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E185">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F185" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C186" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E186">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F186" t="s">
-        <v>99</v>
+        <v>352</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C187" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E187">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F187" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C188" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E188">
         <v>72</v>
       </c>
       <c r="F188" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>